--- a/25-26/Invoices 25-26/16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/measurement sheet - 15-07 -25 Absolute black Long 90 UP (RJ).xlsx
+++ b/25-26/Invoices 25-26/16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long/measurement sheet - 15-07 -25 Absolute black Long 90 UP (RJ).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\Measurement Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\16 BK016 July 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244B55B-384C-4087-BD2F-12B5B7731F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B9CBAA-B94C-4479-BD04-BF3DE1C75A82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Customer '!$C$20:$K$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Customer '!$C$20:$K$256</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
     <definedName name="ColumnTitleRegion1..B4.1">#REF!</definedName>
     <definedName name="ColumnTitleRegion2..C9.1">#REF!</definedName>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -567,11 +567,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -724,6 +748,33 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1318,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K764"/>
+  <dimension ref="A1:K789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1342,28 +1393,28 @@
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -1380,13 +1431,13 @@
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1394,11 +1445,11 @@
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1406,13 +1457,13 @@
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1420,11 +1471,11 @@
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1432,11 +1483,11 @@
     <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1444,10 +1495,10 @@
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1461,11 +1512,11 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="71">
         <f ca="1">TODAY()</f>
-        <v>45853</v>
-      </c>
-      <c r="E10" s="63"/>
+        <v>45859</v>
+      </c>
+      <c r="E10" s="72"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1487,43 +1538,43 @@
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,30 +1604,30 @@
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -5915,27 +5966,27 @@
         <v>141</v>
       </c>
       <c r="D161" s="27">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="E161" s="27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F161" s="32">
         <f t="shared" si="0"/>
-        <v>2.1808000000000001</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="G161" s="33"/>
       <c r="H161" s="34">
         <f t="shared" ref="H161:I161" si="142">D161-5</f>
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="I161" s="34">
         <f t="shared" si="142"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J161" s="32">
         <f t="shared" si="2"/>
-        <v>2.0203000000000002</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="K161" s="48"/>
     </row>
@@ -5946,27 +5997,27 @@
         <v>142</v>
       </c>
       <c r="D162" s="27">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="E162" s="27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F162" s="32">
         <f t="shared" si="0"/>
-        <v>2.1808000000000001</v>
+        <v>2.9575</v>
       </c>
       <c r="G162" s="33"/>
       <c r="H162" s="34">
         <f t="shared" ref="H162:I162" si="143">D162-5</f>
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="I162" s="34">
         <f t="shared" si="143"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J162" s="32">
         <f t="shared" si="2"/>
-        <v>2.0203000000000002</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="K162" s="48"/>
     </row>
@@ -5977,27 +6028,27 @@
         <v>143</v>
       </c>
       <c r="D163" s="27">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="E163" s="27">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F163" s="32">
         <f t="shared" si="0"/>
-        <v>2.2324999999999999</v>
+        <v>2.9575</v>
       </c>
       <c r="G163" s="33"/>
       <c r="H163" s="34">
         <f t="shared" ref="H163:I163" si="144">D163-5</f>
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="I163" s="34">
         <f t="shared" si="144"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J163" s="32">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="K163" s="48"/>
     </row>
@@ -6008,27 +6059,27 @@
         <v>144</v>
       </c>
       <c r="D164" s="27">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="E164" s="27">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F164" s="32">
         <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
+        <v>2.9575</v>
       </c>
       <c r="G164" s="33"/>
       <c r="H164" s="34">
         <f t="shared" ref="H164:I164" si="145">D164-5</f>
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="I164" s="34">
         <f t="shared" si="145"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J164" s="32">
         <f t="shared" si="2"/>
-        <v>2.1150000000000002</v>
+        <v>2.7519999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6038,27 +6089,27 @@
         <v>145</v>
       </c>
       <c r="D165" s="27">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="E165" s="27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F165" s="32">
         <f t="shared" si="0"/>
-        <v>2.2559999999999998</v>
+        <v>2.9575</v>
       </c>
       <c r="G165" s="33"/>
       <c r="H165" s="34">
         <f t="shared" ref="H165:I165" si="146">D165-5</f>
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="I165" s="34">
         <f t="shared" si="146"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J165" s="32">
         <f t="shared" si="2"/>
-        <v>2.0914999999999999</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="K165" s="48"/>
     </row>
@@ -6069,27 +6120,27 @@
         <v>146</v>
       </c>
       <c r="D166" s="27">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="E166" s="27">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F166" s="32">
         <f t="shared" si="0"/>
-        <v>2.2989999999999999</v>
+        <v>2.9483999999999999</v>
       </c>
       <c r="G166" s="33"/>
       <c r="H166" s="34">
         <f t="shared" ref="H166:I166" si="147">D166-5</f>
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="I166" s="34">
         <f t="shared" si="147"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J166" s="32">
         <f t="shared" si="2"/>
-        <v>2.133</v>
+        <v>2.7433999999999998</v>
       </c>
       <c r="K166" s="48"/>
     </row>
@@ -6100,27 +6151,27 @@
         <v>147</v>
       </c>
       <c r="D167" s="27">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="E167" s="27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F167" s="32">
         <f t="shared" si="0"/>
-        <v>2.2747999999999999</v>
+        <v>2.9575</v>
       </c>
       <c r="G167" s="33"/>
       <c r="H167" s="34">
         <f t="shared" ref="H167:I167" si="148">D167-5</f>
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="I167" s="34">
         <f t="shared" si="148"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J167" s="32">
         <f t="shared" si="2"/>
-        <v>2.1093000000000002</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="K167" s="48"/>
     </row>
@@ -6131,27 +6182,27 @@
         <v>148</v>
       </c>
       <c r="D168" s="27">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="E168" s="27">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F168" s="32">
         <f t="shared" si="0"/>
-        <v>2.2989999999999999</v>
+        <v>2.9847999999999999</v>
       </c>
       <c r="G168" s="33"/>
       <c r="H168" s="34">
         <f t="shared" ref="H168:I168" si="149">D168-5</f>
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="I168" s="34">
         <f t="shared" si="149"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J168" s="32">
         <f t="shared" si="2"/>
-        <v>2.133</v>
+        <v>2.7778</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6161,27 +6212,27 @@
         <v>149</v>
       </c>
       <c r="D169" s="27">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="E169" s="27">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F169" s="32">
         <f t="shared" si="0"/>
-        <v>2.3654999999999999</v>
+        <v>2.9847999999999999</v>
       </c>
       <c r="G169" s="33"/>
       <c r="H169" s="34">
         <f t="shared" ref="H169:I169" si="150">D169-5</f>
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="I169" s="34">
         <f t="shared" si="150"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J169" s="32">
         <f t="shared" si="2"/>
-        <v>2.1960000000000002</v>
+        <v>2.7778</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6191,27 +6242,27 @@
         <v>150</v>
       </c>
       <c r="D170" s="27">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="E170" s="27">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F170" s="32">
         <f t="shared" si="0"/>
-        <v>2.3687999999999998</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="34">
         <f t="shared" ref="H170:I170" si="151">D170-5</f>
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="I170" s="34">
         <f t="shared" si="151"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J170" s="32">
         <f t="shared" si="2"/>
-        <v>2.1983000000000001</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7538,20 +7589,20 @@
         <v>93</v>
       </c>
       <c r="F216" s="32">
-        <f t="shared" ref="F216:F230" si="197">D216*E216/10000</f>
+        <f t="shared" ref="F216:F255" si="197">D216*E216/10000</f>
         <v>2.0832000000000002</v>
       </c>
       <c r="G216" s="33"/>
       <c r="H216" s="34">
-        <f t="shared" ref="H216:H230" si="198">D216-5</f>
+        <f t="shared" ref="H216:H255" si="198">D216-5</f>
         <v>219</v>
       </c>
       <c r="I216" s="34">
-        <f t="shared" ref="I216:I230" si="199">E216-5</f>
+        <f t="shared" ref="I216:I255" si="199">E216-5</f>
         <v>88</v>
       </c>
       <c r="J216" s="32">
-        <f t="shared" ref="J216:J230" si="200">H216*I216/10000</f>
+        <f t="shared" ref="J216:J255" si="200">H216*I216/10000</f>
         <v>1.9272</v>
       </c>
       <c r="K216" s="48"/>
@@ -7642,525 +7693,1175 @@
       </c>
     </row>
     <row r="220" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="26">
+      <c r="C220" s="54">
         <v>200</v>
       </c>
-      <c r="D220" s="27">
+      <c r="D220" s="55">
         <v>222</v>
       </c>
-      <c r="E220" s="27">
-        <v>92</v>
-      </c>
-      <c r="F220" s="32">
+      <c r="E220" s="55">
+        <v>92</v>
+      </c>
+      <c r="F220" s="56">
         <f t="shared" si="197"/>
         <v>2.0424000000000002</v>
       </c>
       <c r="G220" s="33"/>
-      <c r="H220" s="34">
+      <c r="H220" s="59">
         <f t="shared" si="198"/>
         <v>217</v>
       </c>
-      <c r="I220" s="34">
+      <c r="I220" s="59">
         <f t="shared" si="199"/>
         <v>87</v>
       </c>
-      <c r="J220" s="32">
+      <c r="J220" s="56">
         <f t="shared" si="200"/>
         <v>1.8878999999999999</v>
       </c>
     </row>
     <row r="221" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="26">
+      <c r="C221" s="52">
         <v>201</v>
       </c>
-      <c r="D221" s="27">
-        <v>237</v>
-      </c>
-      <c r="E221" s="27">
+      <c r="D221" s="57">
+        <v>196</v>
+      </c>
+      <c r="E221" s="57">
+        <v>92</v>
+      </c>
+      <c r="F221" s="58">
+        <f t="shared" si="197"/>
+        <v>1.8031999999999999</v>
+      </c>
+      <c r="G221" s="33"/>
+      <c r="H221" s="53">
+        <f t="shared" si="198"/>
+        <v>191</v>
+      </c>
+      <c r="I221" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J221" s="58">
+        <f t="shared" si="200"/>
+        <v>1.6617</v>
+      </c>
+      <c r="K221" s="48"/>
+    </row>
+    <row r="222" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="52">
+        <v>202</v>
+      </c>
+      <c r="D222" s="57">
+        <v>328</v>
+      </c>
+      <c r="E222" s="57">
+        <v>91</v>
+      </c>
+      <c r="F222" s="58">
+        <f t="shared" si="197"/>
+        <v>2.9847999999999999</v>
+      </c>
+      <c r="G222" s="33"/>
+      <c r="H222" s="53">
+        <f t="shared" si="198"/>
+        <v>323</v>
+      </c>
+      <c r="I222" s="53">
+        <f t="shared" si="199"/>
+        <v>86</v>
+      </c>
+      <c r="J222" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7778</v>
+      </c>
+    </row>
+    <row r="223" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="52">
+        <v>203</v>
+      </c>
+      <c r="D223" s="57">
+        <v>330</v>
+      </c>
+      <c r="E223" s="57">
+        <v>91</v>
+      </c>
+      <c r="F223" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="G223" s="33"/>
+      <c r="H223" s="53">
+        <f t="shared" si="198"/>
+        <v>325</v>
+      </c>
+      <c r="I223" s="53">
+        <f t="shared" si="199"/>
+        <v>86</v>
+      </c>
+      <c r="J223" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="K223" s="48"/>
+    </row>
+    <row r="224" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="52">
+        <v>204</v>
+      </c>
+      <c r="D224" s="57">
+        <v>280</v>
+      </c>
+      <c r="E224" s="57">
+        <v>90</v>
+      </c>
+      <c r="F224" s="58">
+        <f t="shared" si="197"/>
+        <v>2.52</v>
+      </c>
+      <c r="G224" s="33"/>
+      <c r="H224" s="53">
+        <f t="shared" si="198"/>
+        <v>275</v>
+      </c>
+      <c r="I224" s="53">
+        <f t="shared" si="199"/>
+        <v>85</v>
+      </c>
+      <c r="J224" s="58">
+        <f t="shared" si="200"/>
+        <v>2.3374999999999999</v>
+      </c>
+      <c r="K224" s="48"/>
+    </row>
+    <row r="225" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="52">
+        <v>205</v>
+      </c>
+      <c r="D225" s="57">
+        <v>325</v>
+      </c>
+      <c r="E225" s="57">
+        <v>92</v>
+      </c>
+      <c r="F225" s="58">
+        <f t="shared" si="197"/>
+        <v>2.99</v>
+      </c>
+      <c r="G225" s="33"/>
+      <c r="H225" s="53">
+        <f t="shared" si="198"/>
+        <v>320</v>
+      </c>
+      <c r="I225" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J225" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7839999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="52">
+        <v>206</v>
+      </c>
+      <c r="D226" s="57">
+        <v>328</v>
+      </c>
+      <c r="E226" s="57">
+        <v>92</v>
+      </c>
+      <c r="F226" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0175999999999998</v>
+      </c>
+      <c r="G226" s="33"/>
+      <c r="H226" s="53">
+        <f t="shared" si="198"/>
+        <v>323</v>
+      </c>
+      <c r="I226" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J226" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8100999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="52">
+        <v>207</v>
+      </c>
+      <c r="D227" s="57">
+        <v>330</v>
+      </c>
+      <c r="E227" s="57">
+        <v>92</v>
+      </c>
+      <c r="F227" s="58">
+        <f t="shared" si="197"/>
+        <v>3.036</v>
+      </c>
+      <c r="G227" s="33"/>
+      <c r="H227" s="53">
+        <f t="shared" si="198"/>
+        <v>325</v>
+      </c>
+      <c r="I227" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J227" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8275000000000001</v>
+      </c>
+      <c r="K227" s="48"/>
+    </row>
+    <row r="228" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="52">
+        <v>208</v>
+      </c>
+      <c r="D228" s="57">
+        <v>328</v>
+      </c>
+      <c r="E228" s="57">
+        <v>92</v>
+      </c>
+      <c r="F228" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0175999999999998</v>
+      </c>
+      <c r="G228" s="33"/>
+      <c r="H228" s="53">
+        <f t="shared" si="198"/>
+        <v>323</v>
+      </c>
+      <c r="I228" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J228" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8100999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="52">
+        <v>209</v>
+      </c>
+      <c r="D229" s="57">
+        <v>270</v>
+      </c>
+      <c r="E229" s="57">
+        <v>91</v>
+      </c>
+      <c r="F229" s="58">
+        <f t="shared" si="197"/>
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="G229" s="33"/>
+      <c r="H229" s="53">
+        <f t="shared" si="198"/>
+        <v>265</v>
+      </c>
+      <c r="I229" s="53">
+        <f t="shared" si="199"/>
+        <v>86</v>
+      </c>
+      <c r="J229" s="58">
+        <f t="shared" si="200"/>
+        <v>2.2789999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="3:11" s="47" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C230" s="52">
+        <v>210</v>
+      </c>
+      <c r="D230" s="57">
+        <v>260</v>
+      </c>
+      <c r="E230" s="57">
+        <v>92</v>
+      </c>
+      <c r="F230" s="58">
+        <f t="shared" si="197"/>
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="G230" s="33"/>
+      <c r="H230" s="53">
+        <f t="shared" si="198"/>
+        <v>255</v>
+      </c>
+      <c r="I230" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J230" s="58">
+        <f t="shared" si="200"/>
+        <v>2.2185000000000001</v>
+      </c>
+      <c r="K230" s="48"/>
+    </row>
+    <row r="231" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C231" s="52">
+        <v>211</v>
+      </c>
+      <c r="D231" s="57">
+        <v>262</v>
+      </c>
+      <c r="E231" s="57">
+        <v>92</v>
+      </c>
+      <c r="F231" s="58">
+        <f t="shared" si="197"/>
+        <v>2.4104000000000001</v>
+      </c>
+      <c r="G231" s="33"/>
+      <c r="H231" s="53">
+        <f t="shared" si="198"/>
+        <v>257</v>
+      </c>
+      <c r="I231" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J231" s="58">
+        <f t="shared" si="200"/>
+        <v>2.2359</v>
+      </c>
+      <c r="K231" s="48"/>
+    </row>
+    <row r="232" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C232" s="52">
+        <v>212</v>
+      </c>
+      <c r="D232" s="57">
+        <v>262</v>
+      </c>
+      <c r="E232" s="57">
+        <v>92</v>
+      </c>
+      <c r="F232" s="58">
+        <f t="shared" si="197"/>
+        <v>2.4104000000000001</v>
+      </c>
+      <c r="G232" s="33"/>
+      <c r="H232" s="53">
+        <f t="shared" si="198"/>
+        <v>257</v>
+      </c>
+      <c r="I232" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J232" s="58">
+        <f t="shared" si="200"/>
+        <v>2.2359</v>
+      </c>
+      <c r="K232" s="48"/>
+    </row>
+    <row r="233" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C233" s="52">
+        <v>213</v>
+      </c>
+      <c r="D233" s="57">
+        <v>260</v>
+      </c>
+      <c r="E233" s="57">
+        <v>92</v>
+      </c>
+      <c r="F233" s="58">
+        <f t="shared" si="197"/>
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="G233" s="33"/>
+      <c r="H233" s="53">
+        <f t="shared" si="198"/>
+        <v>255</v>
+      </c>
+      <c r="I233" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J233" s="58">
+        <f t="shared" si="200"/>
+        <v>2.2185000000000001</v>
+      </c>
+      <c r="K233" s="48"/>
+    </row>
+    <row r="234" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C234" s="52">
+        <v>214</v>
+      </c>
+      <c r="D234" s="57">
+        <v>309</v>
+      </c>
+      <c r="E234" s="57">
+        <v>92</v>
+      </c>
+      <c r="F234" s="58">
+        <f t="shared" si="197"/>
+        <v>2.8428</v>
+      </c>
+      <c r="G234" s="33"/>
+      <c r="H234" s="53">
+        <f t="shared" si="198"/>
+        <v>304</v>
+      </c>
+      <c r="I234" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J234" s="58">
+        <f t="shared" si="200"/>
+        <v>2.6448</v>
+      </c>
+      <c r="K234" s="48"/>
+    </row>
+    <row r="235" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C235" s="52">
+        <v>215</v>
+      </c>
+      <c r="D235" s="57">
+        <v>308</v>
+      </c>
+      <c r="E235" s="57">
+        <v>92</v>
+      </c>
+      <c r="F235" s="58">
+        <f t="shared" si="197"/>
+        <v>2.8336000000000001</v>
+      </c>
+      <c r="G235" s="33"/>
+      <c r="H235" s="53">
+        <f t="shared" si="198"/>
+        <v>303</v>
+      </c>
+      <c r="I235" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J235" s="58">
+        <f t="shared" si="200"/>
+        <v>2.6360999999999999</v>
+      </c>
+      <c r="K235" s="48"/>
+    </row>
+    <row r="236" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C236" s="52">
+        <v>216</v>
+      </c>
+      <c r="D236" s="57">
+        <v>321</v>
+      </c>
+      <c r="E236" s="57">
+        <v>92</v>
+      </c>
+      <c r="F236" s="58">
+        <f t="shared" si="197"/>
+        <v>2.9531999999999998</v>
+      </c>
+      <c r="G236" s="33"/>
+      <c r="H236" s="53">
+        <f t="shared" si="198"/>
+        <v>316</v>
+      </c>
+      <c r="I236" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J236" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7492000000000001</v>
+      </c>
+      <c r="K236" s="48"/>
+    </row>
+    <row r="237" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C237" s="52">
+        <v>217</v>
+      </c>
+      <c r="D237" s="57">
+        <v>323</v>
+      </c>
+      <c r="E237" s="57">
+        <v>92</v>
+      </c>
+      <c r="F237" s="58">
+        <f t="shared" si="197"/>
+        <v>2.9716</v>
+      </c>
+      <c r="G237" s="33"/>
+      <c r="H237" s="53">
+        <f t="shared" si="198"/>
+        <v>318</v>
+      </c>
+      <c r="I237" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J237" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7665999999999999</v>
+      </c>
+      <c r="K237" s="48"/>
+    </row>
+    <row r="238" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C238" s="52">
+        <v>218</v>
+      </c>
+      <c r="D238" s="57">
+        <v>323</v>
+      </c>
+      <c r="E238" s="57">
+        <v>92</v>
+      </c>
+      <c r="F238" s="58">
+        <f t="shared" si="197"/>
+        <v>2.9716</v>
+      </c>
+      <c r="G238" s="33"/>
+      <c r="H238" s="53">
+        <f t="shared" si="198"/>
+        <v>318</v>
+      </c>
+      <c r="I238" s="53">
+        <f t="shared" si="199"/>
+        <v>87</v>
+      </c>
+      <c r="J238" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7665999999999999</v>
+      </c>
+      <c r="K238" s="48"/>
+    </row>
+    <row r="239" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C239" s="52">
+        <v>219</v>
+      </c>
+      <c r="D239" s="57">
+        <v>204</v>
+      </c>
+      <c r="E239" s="57">
+        <v>98</v>
+      </c>
+      <c r="F239" s="58">
+        <f t="shared" si="197"/>
+        <v>1.9992000000000001</v>
+      </c>
+      <c r="G239" s="33"/>
+      <c r="H239" s="53">
+        <f t="shared" si="198"/>
+        <v>199</v>
+      </c>
+      <c r="I239" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J239" s="58">
+        <f t="shared" si="200"/>
+        <v>1.8507</v>
+      </c>
+      <c r="K239" s="48"/>
+    </row>
+    <row r="240" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C240" s="52">
+        <v>220</v>
+      </c>
+      <c r="D240" s="57">
+        <v>295</v>
+      </c>
+      <c r="E240" s="57">
+        <v>98</v>
+      </c>
+      <c r="F240" s="58">
+        <f t="shared" si="197"/>
+        <v>2.891</v>
+      </c>
+      <c r="G240" s="33"/>
+      <c r="H240" s="53">
+        <f t="shared" si="198"/>
+        <v>290</v>
+      </c>
+      <c r="I240" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J240" s="58">
+        <f t="shared" si="200"/>
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="K240" s="48"/>
+    </row>
+    <row r="241" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C241" s="52">
+        <v>221</v>
+      </c>
+      <c r="D241" s="57">
+        <v>290</v>
+      </c>
+      <c r="E241" s="57">
+        <v>98</v>
+      </c>
+      <c r="F241" s="58">
+        <f t="shared" si="197"/>
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="G241" s="33"/>
+      <c r="H241" s="53">
+        <f t="shared" si="198"/>
+        <v>285</v>
+      </c>
+      <c r="I241" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J241" s="58">
+        <f t="shared" si="200"/>
+        <v>2.6505000000000001</v>
+      </c>
+      <c r="K241" s="48"/>
+    </row>
+    <row r="242" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C242" s="52">
+        <v>222</v>
+      </c>
+      <c r="D242" s="57">
+        <v>292</v>
+      </c>
+      <c r="E242" s="57">
+        <v>98</v>
+      </c>
+      <c r="F242" s="58">
+        <f t="shared" si="197"/>
+        <v>2.8616000000000001</v>
+      </c>
+      <c r="G242" s="33"/>
+      <c r="H242" s="53">
+        <f t="shared" si="198"/>
+        <v>287</v>
+      </c>
+      <c r="I242" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J242" s="58">
+        <f t="shared" si="200"/>
+        <v>2.6690999999999998</v>
+      </c>
+      <c r="K242" s="48"/>
+    </row>
+    <row r="243" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C243" s="52">
+        <v>223</v>
+      </c>
+      <c r="D243" s="57">
+        <v>310</v>
+      </c>
+      <c r="E243" s="57">
+        <v>98</v>
+      </c>
+      <c r="F243" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="G243" s="33"/>
+      <c r="H243" s="53">
+        <f t="shared" si="198"/>
+        <v>305</v>
+      </c>
+      <c r="I243" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J243" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8365</v>
+      </c>
+      <c r="K243" s="48"/>
+    </row>
+    <row r="244" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C244" s="52">
+        <v>224</v>
+      </c>
+      <c r="D244" s="57">
+        <v>313</v>
+      </c>
+      <c r="E244" s="57">
+        <v>98</v>
+      </c>
+      <c r="F244" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0674000000000001</v>
+      </c>
+      <c r="G244" s="33"/>
+      <c r="H244" s="53">
+        <f t="shared" si="198"/>
+        <v>308</v>
+      </c>
+      <c r="I244" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J244" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8643999999999998</v>
+      </c>
+      <c r="K244" s="48"/>
+    </row>
+    <row r="245" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C245" s="52">
+        <v>225</v>
+      </c>
+      <c r="D245" s="57">
+        <v>300</v>
+      </c>
+      <c r="E245" s="57">
+        <v>98</v>
+      </c>
+      <c r="F245" s="58">
+        <f t="shared" si="197"/>
+        <v>2.94</v>
+      </c>
+      <c r="G245" s="33"/>
+      <c r="H245" s="53">
+        <f t="shared" si="198"/>
+        <v>295</v>
+      </c>
+      <c r="I245" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J245" s="58">
+        <f t="shared" si="200"/>
+        <v>2.7435</v>
+      </c>
+      <c r="K245" s="48"/>
+    </row>
+    <row r="246" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C246" s="52">
+        <v>226</v>
+      </c>
+      <c r="D246" s="57">
+        <v>305</v>
+      </c>
+      <c r="E246" s="57">
+        <v>98</v>
+      </c>
+      <c r="F246" s="58">
+        <f t="shared" si="197"/>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="G246" s="33"/>
+      <c r="H246" s="53">
+        <f t="shared" si="198"/>
+        <v>300</v>
+      </c>
+      <c r="I246" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J246" s="58">
+        <f t="shared" si="200"/>
+        <v>2.79</v>
+      </c>
+      <c r="K246" s="48"/>
+    </row>
+    <row r="247" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C247" s="52">
+        <v>227</v>
+      </c>
+      <c r="D247" s="57">
+        <v>255</v>
+      </c>
+      <c r="E247" s="57">
+        <v>98</v>
+      </c>
+      <c r="F247" s="58">
+        <f t="shared" si="197"/>
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="G247" s="33"/>
+      <c r="H247" s="53">
+        <f t="shared" si="198"/>
+        <v>250</v>
+      </c>
+      <c r="I247" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J247" s="58">
+        <f t="shared" si="200"/>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="K247" s="48"/>
+    </row>
+    <row r="248" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C248" s="52">
+        <v>228</v>
+      </c>
+      <c r="D248" s="57">
+        <v>313</v>
+      </c>
+      <c r="E248" s="57">
+        <v>98</v>
+      </c>
+      <c r="F248" s="58">
+        <f t="shared" si="197"/>
+        <v>3.0674000000000001</v>
+      </c>
+      <c r="G248" s="33"/>
+      <c r="H248" s="53">
+        <f t="shared" si="198"/>
+        <v>308</v>
+      </c>
+      <c r="I248" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J248" s="58">
+        <f t="shared" si="200"/>
+        <v>2.8643999999999998</v>
+      </c>
+      <c r="K248" s="48"/>
+    </row>
+    <row r="249" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C249" s="52">
+        <v>229</v>
+      </c>
+      <c r="D249" s="57">
+        <v>186</v>
+      </c>
+      <c r="E249" s="57">
+        <v>98</v>
+      </c>
+      <c r="F249" s="58">
+        <f t="shared" si="197"/>
+        <v>1.8228</v>
+      </c>
+      <c r="G249" s="33"/>
+      <c r="H249" s="53">
+        <f t="shared" si="198"/>
+        <v>181</v>
+      </c>
+      <c r="I249" s="53">
+        <f t="shared" si="199"/>
+        <v>93</v>
+      </c>
+      <c r="J249" s="58">
+        <f t="shared" si="200"/>
+        <v>1.6833</v>
+      </c>
+      <c r="K249" s="48"/>
+    </row>
+    <row r="250" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C250" s="52">
+        <v>230</v>
+      </c>
+      <c r="D250" s="57">
+        <v>194</v>
+      </c>
+      <c r="E250" s="57">
+        <v>100</v>
+      </c>
+      <c r="F250" s="58">
+        <f t="shared" si="197"/>
+        <v>1.94</v>
+      </c>
+      <c r="G250" s="33"/>
+      <c r="H250" s="53">
+        <f t="shared" si="198"/>
+        <v>189</v>
+      </c>
+      <c r="I250" s="53">
+        <f t="shared" si="199"/>
+        <v>95</v>
+      </c>
+      <c r="J250" s="58">
+        <f t="shared" si="200"/>
+        <v>1.7955000000000001</v>
+      </c>
+      <c r="K250" s="48"/>
+    </row>
+    <row r="251" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C251" s="52">
+        <v>231</v>
+      </c>
+      <c r="D251" s="57">
+        <v>194</v>
+      </c>
+      <c r="E251" s="57">
+        <v>100</v>
+      </c>
+      <c r="F251" s="58">
+        <f t="shared" si="197"/>
+        <v>1.94</v>
+      </c>
+      <c r="G251" s="33"/>
+      <c r="H251" s="53">
+        <f t="shared" si="198"/>
+        <v>189</v>
+      </c>
+      <c r="I251" s="53">
+        <f t="shared" si="199"/>
+        <v>95</v>
+      </c>
+      <c r="J251" s="58">
+        <f t="shared" si="200"/>
+        <v>1.7955000000000001</v>
+      </c>
+      <c r="K251" s="48"/>
+    </row>
+    <row r="252" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C252" s="52">
+        <v>232</v>
+      </c>
+      <c r="D252" s="57">
+        <v>191</v>
+      </c>
+      <c r="E252" s="57">
+        <v>100</v>
+      </c>
+      <c r="F252" s="58">
+        <f t="shared" si="197"/>
+        <v>1.91</v>
+      </c>
+      <c r="G252" s="33"/>
+      <c r="H252" s="53">
+        <f t="shared" si="198"/>
+        <v>186</v>
+      </c>
+      <c r="I252" s="53">
+        <f t="shared" si="199"/>
+        <v>95</v>
+      </c>
+      <c r="J252" s="58">
+        <f t="shared" si="200"/>
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="K252" s="48"/>
+    </row>
+    <row r="253" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C253" s="52">
+        <v>233</v>
+      </c>
+      <c r="D253" s="57">
+        <v>190</v>
+      </c>
+      <c r="E253" s="57">
+        <v>99</v>
+      </c>
+      <c r="F253" s="58">
+        <f t="shared" si="197"/>
+        <v>1.881</v>
+      </c>
+      <c r="G253" s="33"/>
+      <c r="H253" s="53">
+        <f t="shared" si="198"/>
+        <v>185</v>
+      </c>
+      <c r="I253" s="53">
+        <f t="shared" si="199"/>
         <v>94</v>
       </c>
-      <c r="F221" s="32">
+      <c r="J253" s="58">
+        <f t="shared" si="200"/>
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="K253" s="48"/>
+    </row>
+    <row r="254" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C254" s="52">
+        <v>234</v>
+      </c>
+      <c r="D254" s="57">
+        <v>191</v>
+      </c>
+      <c r="E254" s="57">
+        <v>99</v>
+      </c>
+      <c r="F254" s="58">
         <f t="shared" si="197"/>
-        <v>2.2277999999999998</v>
-      </c>
-      <c r="G221" s="33"/>
-      <c r="H221" s="34">
+        <v>1.8909</v>
+      </c>
+      <c r="G254" s="33"/>
+      <c r="H254" s="53">
         <f t="shared" si="198"/>
-        <v>232</v>
-      </c>
-      <c r="I221" s="34">
+        <v>186</v>
+      </c>
+      <c r="I254" s="53">
         <f t="shared" si="199"/>
-        <v>89</v>
-      </c>
-      <c r="J221" s="32">
+        <v>94</v>
+      </c>
+      <c r="J254" s="58">
         <f t="shared" si="200"/>
-        <v>2.0648</v>
-      </c>
-      <c r="K221" s="48"/>
-    </row>
-    <row r="222" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="26">
-        <v>202</v>
-      </c>
-      <c r="D222" s="27">
-        <v>240</v>
-      </c>
-      <c r="E222" s="27">
-        <v>95</v>
-      </c>
-      <c r="F222" s="32">
+        <v>1.7484</v>
+      </c>
+      <c r="K254" s="48"/>
+    </row>
+    <row r="255" spans="3:11" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C255" s="52">
+        <v>235</v>
+      </c>
+      <c r="D255" s="57">
+        <v>191</v>
+      </c>
+      <c r="E255" s="57">
+        <v>99</v>
+      </c>
+      <c r="F255" s="58">
         <f t="shared" si="197"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G222" s="33"/>
-      <c r="H222" s="34">
+        <v>1.8909</v>
+      </c>
+      <c r="G255" s="33"/>
+      <c r="H255" s="53">
         <f t="shared" si="198"/>
+        <v>186</v>
+      </c>
+      <c r="I255" s="53">
+        <f t="shared" si="199"/>
+        <v>94</v>
+      </c>
+      <c r="J255" s="58">
+        <f t="shared" si="200"/>
+        <v>1.7484</v>
+      </c>
+      <c r="K255" s="48"/>
+    </row>
+    <row r="256" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="65"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="46">
+        <f>SUM(F21:F255)</f>
+        <v>521.75279999999975</v>
+      </c>
+      <c r="H256" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I256" s="66"/>
+      <c r="J256" s="46">
+        <f>SUM(J21:J255)</f>
+        <v>483.44779999999992</v>
+      </c>
+    </row>
+    <row r="257" spans="3:10" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="45"/>
+      <c r="D257" s="41"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="42"/>
+      <c r="H257" s="43"/>
+      <c r="I257" s="44"/>
+      <c r="J257" s="42"/>
+    </row>
+    <row r="258" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="5"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" s="76"/>
+      <c r="H258" s="77"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+    </row>
+    <row r="259" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="5"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="78"/>
+      <c r="G259" s="79"/>
+      <c r="H259" s="80"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="5"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G260" s="89"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="35"/>
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" s="74"/>
+      <c r="H261" s="12">
         <v>235</v>
       </c>
-      <c r="I222" s="34">
-        <f t="shared" si="199"/>
-        <v>90</v>
-      </c>
-      <c r="J222" s="32">
-        <f t="shared" si="200"/>
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="26">
-        <v>203</v>
-      </c>
-      <c r="D223" s="27">
-        <v>240</v>
-      </c>
-      <c r="E223" s="27">
-        <v>95</v>
-      </c>
-      <c r="F223" s="32">
-        <f t="shared" si="197"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G223" s="33"/>
-      <c r="H223" s="34">
-        <f t="shared" si="198"/>
-        <v>235</v>
-      </c>
-      <c r="I223" s="34">
-        <f t="shared" si="199"/>
-        <v>90</v>
-      </c>
-      <c r="J223" s="32">
-        <f t="shared" si="200"/>
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="K223" s="48"/>
-    </row>
-    <row r="224" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="26">
-        <v>204</v>
-      </c>
-      <c r="D224" s="27">
-        <v>240</v>
-      </c>
-      <c r="E224" s="27">
-        <v>94</v>
-      </c>
-      <c r="F224" s="32">
-        <f t="shared" si="197"/>
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="G224" s="33"/>
-      <c r="H224" s="34">
-        <f t="shared" si="198"/>
-        <v>235</v>
-      </c>
-      <c r="I224" s="34">
-        <f t="shared" si="199"/>
-        <v>89</v>
-      </c>
-      <c r="J224" s="32">
-        <f t="shared" si="200"/>
-        <v>2.0914999999999999</v>
-      </c>
-      <c r="K224" s="48"/>
-    </row>
-    <row r="225" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="26">
-        <v>205</v>
-      </c>
-      <c r="D225" s="27">
-        <v>240</v>
-      </c>
-      <c r="E225" s="27">
-        <v>94</v>
-      </c>
-      <c r="F225" s="32">
-        <f t="shared" si="197"/>
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="G225" s="33"/>
-      <c r="H225" s="34">
-        <f t="shared" si="198"/>
-        <v>235</v>
-      </c>
-      <c r="I225" s="34">
-        <f t="shared" si="199"/>
-        <v>89</v>
-      </c>
-      <c r="J225" s="32">
-        <f t="shared" si="200"/>
-        <v>2.0914999999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C226" s="26">
-        <v>206</v>
-      </c>
-      <c r="D226" s="27">
-        <v>232</v>
-      </c>
-      <c r="E226" s="27">
-        <v>92</v>
-      </c>
-      <c r="F226" s="32">
-        <f t="shared" si="197"/>
-        <v>2.1343999999999999</v>
-      </c>
-      <c r="G226" s="33"/>
-      <c r="H226" s="34">
-        <f t="shared" si="198"/>
-        <v>227</v>
-      </c>
-      <c r="I226" s="34">
-        <f t="shared" si="199"/>
-        <v>87</v>
-      </c>
-      <c r="J226" s="32">
-        <f t="shared" si="200"/>
-        <v>1.9749000000000001</v>
-      </c>
-    </row>
-    <row r="227" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="26">
-        <v>207</v>
-      </c>
-      <c r="D227" s="27">
-        <v>225</v>
-      </c>
-      <c r="E227" s="27">
-        <v>92</v>
-      </c>
-      <c r="F227" s="32">
-        <f t="shared" si="197"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G227" s="33"/>
-      <c r="H227" s="34">
-        <f t="shared" si="198"/>
-        <v>220</v>
-      </c>
-      <c r="I227" s="34">
-        <f t="shared" si="199"/>
-        <v>87</v>
-      </c>
-      <c r="J227" s="32">
-        <f t="shared" si="200"/>
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="K227" s="48"/>
-    </row>
-    <row r="228" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="26">
-        <v>208</v>
-      </c>
-      <c r="D228" s="27">
-        <v>232</v>
-      </c>
-      <c r="E228" s="27">
-        <v>92</v>
-      </c>
-      <c r="F228" s="32">
-        <f t="shared" si="197"/>
-        <v>2.1343999999999999</v>
-      </c>
-      <c r="G228" s="33"/>
-      <c r="H228" s="34">
-        <f t="shared" si="198"/>
-        <v>227</v>
-      </c>
-      <c r="I228" s="34">
-        <f t="shared" si="199"/>
-        <v>87</v>
-      </c>
-      <c r="J228" s="32">
-        <f t="shared" si="200"/>
-        <v>1.9749000000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C229" s="26">
-        <v>209</v>
-      </c>
-      <c r="D229" s="27">
-        <v>232</v>
-      </c>
-      <c r="E229" s="27">
-        <v>92</v>
-      </c>
-      <c r="F229" s="32">
-        <f t="shared" si="197"/>
-        <v>2.1343999999999999</v>
-      </c>
-      <c r="G229" s="33"/>
-      <c r="H229" s="34">
-        <f t="shared" si="198"/>
-        <v>227</v>
-      </c>
-      <c r="I229" s="34">
-        <f t="shared" si="199"/>
-        <v>87</v>
-      </c>
-      <c r="J229" s="32">
-        <f t="shared" si="200"/>
-        <v>1.9749000000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="3:11" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C230" s="26">
-        <v>210</v>
-      </c>
-      <c r="D230" s="27">
-        <v>232</v>
-      </c>
-      <c r="E230" s="27">
-        <v>92</v>
-      </c>
-      <c r="F230" s="32">
-        <f t="shared" si="197"/>
-        <v>2.1343999999999999</v>
-      </c>
-      <c r="G230" s="33"/>
-      <c r="H230" s="34">
-        <f t="shared" si="198"/>
-        <v>227</v>
-      </c>
-      <c r="I230" s="34">
-        <f t="shared" si="199"/>
-        <v>87</v>
-      </c>
-      <c r="J230" s="32">
-        <f t="shared" si="200"/>
-        <v>1.9749000000000001</v>
-      </c>
-      <c r="K230" s="48"/>
-    </row>
-    <row r="231" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C231" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="46">
-        <f>SUM(F21:F230)</f>
-        <v>446.37789999999978</v>
-      </c>
-      <c r="H231" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I231" s="57"/>
-      <c r="J231" s="46">
-        <f>SUM(J21:J230)</f>
-        <v>413.21489999999994</v>
-      </c>
-    </row>
-    <row r="232" spans="3:11" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="45"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="41"/>
-      <c r="F232" s="42"/>
-      <c r="H232" s="43"/>
-      <c r="I232" s="44"/>
-      <c r="J232" s="42"/>
-    </row>
-    <row r="233" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C233" s="5"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="35"/>
-      <c r="F233" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" s="67"/>
-      <c r="H233" s="68"/>
-      <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-    </row>
-    <row r="234" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C234" s="5"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="35"/>
-      <c r="F234" s="69"/>
-      <c r="G234" s="70"/>
-      <c r="H234" s="71"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-    </row>
-    <row r="235" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C235" s="5"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" s="80"/>
-      <c r="H235" s="11"/>
-      <c r="I235" s="35"/>
-      <c r="J235" s="10"/>
-    </row>
-    <row r="236" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G236" s="65"/>
-      <c r="H236" s="12">
-        <v>210</v>
-      </c>
-      <c r="I236" s="35"/>
-      <c r="J236" s="36"/>
-    </row>
-    <row r="237" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="64" t="s">
+      <c r="I261" s="35"/>
+      <c r="J261" s="36"/>
+    </row>
+    <row r="262" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G237" s="65"/>
-      <c r="H237" s="37">
-        <f>F231</f>
-        <v>446.37789999999978</v>
-      </c>
-      <c r="I237" s="3"/>
-      <c r="J237" s="6"/>
-    </row>
-    <row r="238" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="64" t="s">
+      <c r="G262" s="74"/>
+      <c r="H262" s="37">
+        <f>F256</f>
+        <v>521.75279999999975</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G238" s="65"/>
-      <c r="H238" s="37">
-        <f>J231</f>
-        <v>413.21489999999994</v>
-      </c>
-      <c r="I238" s="3"/>
-      <c r="J238" s="6"/>
-    </row>
-    <row r="239" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C239" s="38"/>
-      <c r="F239" s="39"/>
-    </row>
-    <row r="240" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C240" s="38"/>
-    </row>
-    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C241" s="38"/>
-    </row>
-    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C242" s="38"/>
-    </row>
-    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C243" s="38"/>
-    </row>
-    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C244" s="38"/>
-    </row>
-    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C245" s="38"/>
-    </row>
-    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C246" s="38"/>
-    </row>
-    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C247" s="38"/>
-    </row>
-    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C248" s="38"/>
-    </row>
-    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C249" s="38"/>
-    </row>
-    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C250" s="38"/>
-    </row>
-    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C251" s="38"/>
-    </row>
-    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C252" s="38"/>
-    </row>
-    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C253" s="38"/>
-    </row>
-    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C254" s="38"/>
-    </row>
-    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C255" s="38"/>
-    </row>
-    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C256" s="38"/>
-    </row>
-    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C257" s="38"/>
-    </row>
-    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C258" s="38"/>
-    </row>
-    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C259" s="38"/>
-    </row>
-    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C260" s="38"/>
-    </row>
-    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C261" s="38"/>
-    </row>
-    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C262" s="38"/>
-    </row>
-    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C263" s="38"/>
-    </row>
-    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G263" s="74"/>
+      <c r="H263" s="37">
+        <f>J256</f>
+        <v>483.44779999999992</v>
+      </c>
+      <c r="I263" s="3"/>
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="38"/>
-    </row>
-    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F264" s="39"/>
+    </row>
+    <row r="265" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="38"/>
     </row>
-    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="38"/>
     </row>
-    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="38"/>
     </row>
-    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="38"/>
     </row>
-    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="38"/>
     </row>
-    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="38"/>
     </row>
-    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="38"/>
     </row>
-    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="38"/>
     </row>
     <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9639,16 +10340,91 @@
     <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="38"/>
     </row>
+    <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C765" s="38"/>
+    </row>
+    <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C766" s="38"/>
+    </row>
+    <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C767" s="38"/>
+    </row>
+    <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C768" s="38"/>
+    </row>
+    <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C769" s="38"/>
+    </row>
+    <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C770" s="38"/>
+    </row>
+    <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C771" s="38"/>
+    </row>
+    <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C772" s="38"/>
+    </row>
+    <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C773" s="38"/>
+    </row>
+    <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C774" s="38"/>
+    </row>
+    <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C775" s="38"/>
+    </row>
+    <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C776" s="38"/>
+    </row>
+    <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C777" s="38"/>
+    </row>
+    <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C778" s="38"/>
+    </row>
+    <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C779" s="38"/>
+    </row>
+    <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C780" s="38"/>
+    </row>
+    <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C781" s="38"/>
+    </row>
+    <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C782" s="38"/>
+    </row>
+    <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C783" s="38"/>
+    </row>
+    <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C784" s="38"/>
+    </row>
+    <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C785" s="38"/>
+    </row>
+    <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C786" s="38"/>
+    </row>
+    <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C787" s="38"/>
+    </row>
+    <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C788" s="38"/>
+    </row>
+    <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C789" s="38"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C20:K231" xr:uid="{195F0738-DAC8-4511-A978-C9E826316DB4}"/>
+  <autoFilter ref="C20:K256" xr:uid="{195F0738-DAC8-4511-A978-C9E826316DB4}"/>
   <mergeCells count="18">
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F233:H234"/>
-    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="F258:H259"/>
+    <mergeCell ref="F263:G263"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="H17:J18"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="F261:G261"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="C6:G8"/>
@@ -9658,8 +10434,8 @@
     <mergeCell ref="C13:E14"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I14"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="H256:I256"/>
   </mergeCells>
   <pageMargins left="0.68500000000000005" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
